--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/28_Edirne_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/28_Edirne_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C905E421-69C5-4B69-8D78-475EB6FDE5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDC27D3-4540-4556-9473-A01F495CA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{E152DACC-66A3-4D39-8171-141AD1F3C9B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{F607F506-146A-4CB4-A87E-7F95A4D88944}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="134" r:id="rId1"/>
@@ -902,14 +902,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A5C1578A-D1AA-4659-B15F-79587485DC57}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3F3B697C-F42D-44B7-8F15-FED69F4FBF9E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{1890119C-C403-4667-B521-072A26C3B612}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{B22B16FA-9168-4950-BE41-2A9E1C6B39DF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E4EE459A-49E9-4029-969D-6A98412B420C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{472493C0-4C37-4A4B-9A57-31B7CFD5BE26}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3BD5923D-C734-4408-A307-57357B610D72}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{21BD85E6-D98F-4D37-BD0F-7FD1285B1654}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{166EB9C8-7B53-433A-BF33-921D22F962E5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2C76FD0F-7CBB-4F9E-9DEA-CB5A33161B04}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{2A91D02B-A129-42CF-9F06-8BD429B9D409}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{94F34D31-E01E-4903-A430-3C3DDE64BBE2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F2247760-4F26-44ED-A210-65F9C535007E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5B7BC045-4E43-491E-A5F1-9DCB64399BE1}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1D62EC48-0BB0-4F5D-A52E-42B870A8B484}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{17035A43-489D-44B7-851D-6FACDDFF26B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E1943-0293-408A-8903-5F6875AC7F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED31E58-8D46-4617-AACE-3E4530E0879F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F8C3DE-77F0-4973-B90F-0939CD467DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B23828-2FF9-42E1-8D6D-481664F1E651}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6537D75-6319-407C-B816-05FEE3A0ED5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C246DBFC-FB8B-41AF-A27D-564B9AFF474C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5156,7 +5156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E62E414-06E7-4E16-B208-3B60A46CE641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7EC21F-C23B-433D-AA6E-4842C643D3D8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DEAFA6-D311-4777-85E3-FF0FEF24FD0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720143BD-A1E0-413B-B90B-C8288CD9CC70}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7733,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40564C0B-C028-4C1B-BBC0-0CF1EA7200E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DC879-77A4-4352-A106-B61DE26A66CE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9016,7 +9016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9BB63B-9A43-4DE1-A53D-220D1A4386DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53268FE-230E-4EC7-B80E-5511C53D615D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10301,7 +10301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62E004D-2499-47A3-894C-7CAF5BF9B2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835C0B-B5B0-4831-BF30-B2B0A5B2D0BC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11586,7 +11586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8645A2-E66E-493E-AB17-A7CF5D2DAED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C21676-E96D-46C9-9CD3-B2F938253DAB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12875,7 +12875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B582D-324A-4E26-BE5C-878BC139D127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2767241C-42D4-4F98-90FA-B89F33027EF5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14158,7 +14158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422AD4C-0327-4806-BE49-CB842A2CD300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7C9AD-2BA5-4D76-A1D6-B973ED10216D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15447,7 +15447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCC93A3-3BA5-4025-B6A1-B05AB690F0A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D60AFA2-5BF3-4D0D-A4A1-0DB8D4B57F0E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
